--- a/AI/aula_18_09/01 - ESAN AInf EXER_2025-2026 Dados.xlsx
+++ b/AI/aula_18_09/01 - ESAN AInf EXER_2025-2026 Dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prgca\Desktop\Code\Aulas\AI\aula_18_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB82FE7-446A-41F6-B0DD-CC032E104DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5783B37-B9A1-43AC-89A8-E5AF38E91B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ex.01" sheetId="1" r:id="rId1"/>
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEE0523-59C1-474D-BD63-FCAFF67A634E}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScale="78" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,7 +1589,7 @@
     <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1626,7 +1626,7 @@
         <v>3789</v>
       </c>
       <c r="D2" s="48">
-        <f>C2+C2*I2</f>
+        <f>C2+C2*$I$2</f>
         <v>4660.47</v>
       </c>
       <c r="E2" s="44">
@@ -1651,15 +1651,15 @@
         <v>3700</v>
       </c>
       <c r="D3" s="48">
-        <f>C3+C3*I3</f>
-        <v>3700</v>
+        <f t="shared" ref="D3:D24" si="0">C3+C3*$I$2</f>
+        <v>4551</v>
       </c>
       <c r="E3" s="44">
         <v>0.09</v>
       </c>
       <c r="F3" s="49">
         <f>D3-D3*E3</f>
-        <v>3367</v>
+        <v>4141.41</v>
       </c>
       <c r="K3" s="32" t="s">
         <v>91</v>
@@ -1668,7 +1668,7 @@
       <c r="M3" s="32"/>
       <c r="N3" s="30">
         <f>MIN(D2:D24)</f>
-        <v>3700</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1682,15 +1682,15 @@
         <v>3900</v>
       </c>
       <c r="D4" s="48">
-        <f>C4+C4*I4</f>
-        <v>3900</v>
+        <f t="shared" si="0"/>
+        <v>4797</v>
       </c>
       <c r="E4" s="44">
         <v>0.04</v>
       </c>
       <c r="F4" s="49">
         <f>D4-D4*E4</f>
-        <v>3744</v>
+        <v>4605.12</v>
       </c>
       <c r="K4" s="32" t="s">
         <v>92</v>
@@ -1699,7 +1699,7 @@
       <c r="M4" s="32"/>
       <c r="N4" s="30">
         <f>MAX(D2:D24)</f>
-        <v>9000</v>
+        <v>11070</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1711,15 +1711,15 @@
         <v>3988</v>
       </c>
       <c r="D5" s="48">
-        <f>C5+C5*I5</f>
-        <v>3988</v>
+        <f t="shared" si="0"/>
+        <v>4905.24</v>
       </c>
       <c r="E5" s="44">
         <v>0.04</v>
       </c>
       <c r="F5" s="49">
         <f>D5-D5*E5</f>
-        <v>3828.48</v>
+        <v>4709.0303999999996</v>
       </c>
       <c r="K5" s="32" t="s">
         <v>93</v>
@@ -1728,7 +1728,7 @@
       <c r="M5" s="32"/>
       <c r="N5" s="30">
         <f>AVERAGE(D2:D24)</f>
-        <v>5621.8465217391304</v>
+        <v>6868.2665217391295</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1742,15 +1742,15 @@
         <v>4100</v>
       </c>
       <c r="D6" s="48">
-        <f>C6+C6*I6</f>
-        <v>4100</v>
+        <f t="shared" si="0"/>
+        <v>5043</v>
       </c>
       <c r="E6" s="44">
         <v>0.06</v>
       </c>
       <c r="F6" s="49">
         <f>D6-D6*E6</f>
-        <v>3854</v>
+        <v>4740.42</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
@@ -1767,15 +1767,15 @@
         <v>4010</v>
       </c>
       <c r="D7" s="48">
-        <f>C7+C7*I7</f>
-        <v>4010</v>
+        <f t="shared" si="0"/>
+        <v>4932.3</v>
       </c>
       <c r="E7" s="44">
         <v>0.03</v>
       </c>
       <c r="F7" s="49">
         <f>D7-D7*E7</f>
-        <v>3889.7</v>
+        <v>4784.3310000000001</v>
       </c>
       <c r="K7" s="32" t="s">
         <v>94</v>
@@ -1784,7 +1784,7 @@
       <c r="M7" s="32"/>
       <c r="N7" s="30">
         <f>MIN(F2:F24)</f>
-        <v>3367</v>
+        <v>4054.6089000000002</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1798,15 +1798,15 @@
         <v>4500</v>
       </c>
       <c r="D8" s="48">
-        <f>C8+C8*I8</f>
-        <v>4500</v>
+        <f t="shared" si="0"/>
+        <v>5535</v>
       </c>
       <c r="E8" s="44">
         <v>0.05</v>
       </c>
       <c r="F8" s="49">
         <f>D8-D8*E8</f>
-        <v>4275</v>
+        <v>5258.25</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>95</v>
@@ -1815,7 +1815,7 @@
       <c r="M8" s="32"/>
       <c r="N8" s="30">
         <f>MAX(F2:F24)</f>
-        <v>7920</v>
+        <v>9741.6</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1829,15 +1829,15 @@
         <v>4823</v>
       </c>
       <c r="D9" s="48">
-        <f>C9+C9*I9</f>
-        <v>4823</v>
+        <f t="shared" si="0"/>
+        <v>5932.29</v>
       </c>
       <c r="E9" s="44">
         <v>0.11</v>
       </c>
       <c r="F9" s="49">
         <f>D9-D9*E9</f>
-        <v>4292.47</v>
+        <v>5279.7380999999996</v>
       </c>
       <c r="K9" s="32" t="s">
         <v>96</v>
@@ -1846,7 +1846,7 @@
       <c r="M9" s="32"/>
       <c r="N9" s="30">
         <f>AVERAGE(F2:F24)</f>
-        <v>5190.1477782608699</v>
+        <v>6343.3356782608698</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1860,15 +1860,15 @@
         <v>5100</v>
       </c>
       <c r="D10" s="48">
-        <f>C10+C10*I10</f>
-        <v>5100</v>
+        <f t="shared" si="0"/>
+        <v>6273</v>
       </c>
       <c r="E10" s="44">
         <v>0.1</v>
       </c>
       <c r="F10" s="49">
         <f>D10-D10*E10</f>
-        <v>4590</v>
+        <v>5645.7</v>
       </c>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
@@ -1885,15 +1885,15 @@
         <v>5400</v>
       </c>
       <c r="D11" s="48">
-        <f>C11+C11*I11</f>
-        <v>5400</v>
+        <f t="shared" si="0"/>
+        <v>6642</v>
       </c>
       <c r="E11" s="44">
         <v>0.08</v>
       </c>
       <c r="F11" s="49">
         <f>D11-D11*E11</f>
-        <v>4968</v>
+        <v>6110.64</v>
       </c>
       <c r="K11" s="32" t="s">
         <v>97</v>
@@ -1916,15 +1916,15 @@
         <v>5700</v>
       </c>
       <c r="D12" s="48">
-        <f>C12+C12*I12</f>
-        <v>5700</v>
+        <f t="shared" si="0"/>
+        <v>7011</v>
       </c>
       <c r="E12" s="44">
         <v>0.1</v>
       </c>
       <c r="F12" s="49">
         <f>D12-D12*E12</f>
-        <v>5130</v>
+        <v>6309.9</v>
       </c>
       <c r="K12" s="32" t="s">
         <v>98</v>
@@ -1945,15 +1945,15 @@
         <v>5444</v>
       </c>
       <c r="D13" s="48">
-        <f>C13+C13*I13</f>
-        <v>5444</v>
+        <f t="shared" si="0"/>
+        <v>6696.12</v>
       </c>
       <c r="E13" s="44">
         <v>0.03</v>
       </c>
       <c r="F13" s="49">
         <f>D13-D13*E13</f>
-        <v>5280.68</v>
+        <v>6495.2363999999998</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1967,15 +1967,15 @@
         <v>5800</v>
       </c>
       <c r="D14" s="48">
-        <f>C14+C14*I14</f>
-        <v>5800</v>
+        <f t="shared" si="0"/>
+        <v>7134</v>
       </c>
       <c r="E14" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F14" s="49">
         <f>D14-D14*E14</f>
-        <v>5394</v>
+        <v>6634.62</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1989,15 +1989,15 @@
         <v>5897</v>
       </c>
       <c r="D15" s="48">
-        <f>C15+C15*I15</f>
-        <v>5897</v>
+        <f t="shared" si="0"/>
+        <v>7253.3099999999995</v>
       </c>
       <c r="E15" s="44">
         <v>0.06</v>
       </c>
       <c r="F15" s="49">
         <f>D15-D15*E15</f>
-        <v>5543.18</v>
+        <v>6818.1113999999998</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -2011,15 +2011,15 @@
         <v>6098</v>
       </c>
       <c r="D16" s="48">
-        <f>C16+C16*I16</f>
-        <v>6098</v>
+        <f t="shared" si="0"/>
+        <v>7500.54</v>
       </c>
       <c r="E16" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F16" s="49">
         <f>D16-D16*E16</f>
-        <v>5671.14</v>
+        <v>6975.5021999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2031,15 +2031,15 @@
         <v>6002</v>
       </c>
       <c r="D17" s="48">
-        <f>C17+C17*I17</f>
-        <v>6002</v>
+        <f t="shared" si="0"/>
+        <v>7382.46</v>
       </c>
       <c r="E17" s="44">
         <v>0.03</v>
       </c>
       <c r="F17" s="49">
         <f>D17-D17*E17</f>
-        <v>5821.94</v>
+        <v>7160.9862000000003</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2053,15 +2053,15 @@
         <v>5000</v>
       </c>
       <c r="D18" s="48">
-        <f>C18+C18*I18</f>
-        <v>5000</v>
+        <f t="shared" si="0"/>
+        <v>6150</v>
       </c>
       <c r="E18" s="44">
         <v>0.05</v>
       </c>
       <c r="F18" s="49">
         <f>D18-D18*E18</f>
-        <v>4750</v>
+        <v>5842.5</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2075,15 +2075,15 @@
         <v>6700</v>
       </c>
       <c r="D19" s="48">
-        <f>C19+C19*I19</f>
-        <v>6700</v>
+        <f t="shared" si="0"/>
+        <v>8241</v>
       </c>
       <c r="E19" s="44">
         <v>0.09</v>
       </c>
       <c r="F19" s="49">
         <f>D19-D19*E19</f>
-        <v>6097</v>
+        <v>7499.31</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2097,15 +2097,15 @@
         <v>6500</v>
       </c>
       <c r="D20" s="48">
-        <f>C20+C20*I20</f>
-        <v>6500</v>
+        <f t="shared" si="0"/>
+        <v>7995</v>
       </c>
       <c r="E20" s="44">
         <v>0.06</v>
       </c>
       <c r="F20" s="49">
         <f>D20-D20*E20</f>
-        <v>6110</v>
+        <v>7515.3</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2119,15 +2119,15 @@
         <v>7000</v>
       </c>
       <c r="D21" s="48">
-        <f>C21+C21*I21</f>
-        <v>7000</v>
+        <f t="shared" si="0"/>
+        <v>8610</v>
       </c>
       <c r="E21" s="44">
         <v>0.05</v>
       </c>
       <c r="F21" s="49">
         <f>D21-D21*E21</f>
-        <v>6650</v>
+        <v>8179.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2141,15 +2141,15 @@
         <v>8000</v>
       </c>
       <c r="D22" s="48">
-        <f>C22+C22*I22</f>
-        <v>8000</v>
+        <f t="shared" si="0"/>
+        <v>9840</v>
       </c>
       <c r="E22" s="44">
         <v>0.12</v>
       </c>
       <c r="F22" s="49">
         <f>D22-D22*E22</f>
-        <v>7040</v>
+        <v>8659.2000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2163,15 +2163,15 @@
         <v>7980</v>
       </c>
       <c r="D23" s="48">
-        <f>C23+C23*I23</f>
-        <v>7980</v>
+        <f t="shared" si="0"/>
+        <v>9815.4</v>
       </c>
       <c r="E23" s="44">
         <v>0.11</v>
       </c>
       <c r="F23" s="49">
         <f>D23-D23*E23</f>
-        <v>7102.2</v>
+        <v>8735.7060000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2184,16 +2184,16 @@
       <c r="C24" s="47">
         <v>9000</v>
       </c>
-      <c r="D24" s="47">
-        <f>C24+C24*I24</f>
-        <v>9000</v>
+      <c r="D24" s="48">
+        <f t="shared" si="0"/>
+        <v>11070</v>
       </c>
       <c r="E24" s="45">
         <v>0.12</v>
       </c>
       <c r="F24" s="50">
         <f>D24-D24*E24</f>
-        <v>7920</v>
+        <v>9741.6</v>
       </c>
     </row>
   </sheetData>
@@ -2219,7 +2219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4FB564-BC1F-4BA5-A40F-AD7694B26513}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="H15" s="35"/>
       <c r="I15" s="26">
-        <f>_xlfn.MINIFS(D2:D14,C2:C14,"A")</f>
+        <f>_xlfn.MINIFS(D2:D14,C2:C14,"A",A2:A14,1)</f>
         <v>75000</v>
       </c>
     </row>

--- a/AI/aula_18_09/01 - ESAN AInf EXER_2025-2026 Dados.xlsx
+++ b/AI/aula_18_09/01 - ESAN AInf EXER_2025-2026 Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prgca\Desktop\Code\Aulas\AI\aula_18_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5783B37-B9A1-43AC-89A8-E5AF38E91B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91F6467-D32A-4189-84F7-81501BF39980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,7 +357,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;XDR&quot;_-;\-* #,##0.00\ &quot;XDR&quot;_-;_-* &quot;-&quot;??\ &quot;XDR&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -943,18 +943,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -979,13 +967,25 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1458,8 +1458,8 @@
       <c r="B4" s="11">
         <v>897</v>
       </c>
-      <c r="C4" s="41">
-        <f>B4/$B$1-1</f>
+      <c r="C4" s="37">
+        <f t="shared" ref="C4:C11" si="0">B4/$B$1-1</f>
         <v>-0.40200000000000002</v>
       </c>
     </row>
@@ -1470,8 +1470,8 @@
       <c r="B5" s="12">
         <v>1289</v>
       </c>
-      <c r="C5" s="41">
-        <f>B5/$B$1-1</f>
+      <c r="C5" s="37">
+        <f t="shared" si="0"/>
         <v>-0.14066666666666672</v>
       </c>
     </row>
@@ -1482,8 +1482,8 @@
       <c r="B6" s="12">
         <v>1356</v>
       </c>
-      <c r="C6" s="41">
-        <f>B6/$B$1-1</f>
+      <c r="C6" s="37">
+        <f t="shared" si="0"/>
         <v>-9.5999999999999974E-2</v>
       </c>
     </row>
@@ -1494,8 +1494,8 @@
       <c r="B7" s="12">
         <v>1499</v>
       </c>
-      <c r="C7" s="41">
-        <f>B7/$B$1-1</f>
+      <c r="C7" s="37">
+        <f t="shared" si="0"/>
         <v>-6.6666666666670427E-4</v>
       </c>
     </row>
@@ -1506,8 +1506,8 @@
       <c r="B8" s="12">
         <v>1578</v>
       </c>
-      <c r="C8" s="41">
-        <f>B8/$B$1-1</f>
+      <c r="C8" s="37">
+        <f t="shared" si="0"/>
         <v>5.2000000000000046E-2</v>
       </c>
     </row>
@@ -1518,8 +1518,8 @@
       <c r="B9" s="12">
         <v>1760</v>
       </c>
-      <c r="C9" s="41">
-        <f>B9/$B$1-1</f>
+      <c r="C9" s="37">
+        <f t="shared" si="0"/>
         <v>0.17333333333333334</v>
       </c>
     </row>
@@ -1530,8 +1530,8 @@
       <c r="B10" s="12">
         <v>1879</v>
       </c>
-      <c r="C10" s="41">
-        <f>B10/$B$1-1</f>
+      <c r="C10" s="37">
+        <f t="shared" si="0"/>
         <v>0.2526666666666666</v>
       </c>
     </row>
@@ -1539,28 +1539,28 @@
       <c r="A11" s="16">
         <v>45228</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="42" t="e">
-        <f>B11/$B$1-1</f>
+      <c r="C11" s="38" t="e">
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="36">
         <f>COUNT(C4:C11)</f>
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="35">
         <f>COUNTIF(C4:C11,"&gt;0")</f>
         <v>3</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="E1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="47" t="s">
         <v>101</v>
       </c>
       <c r="I1" s="28" t="s">
@@ -1622,21 +1622,21 @@
       <c r="B2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="42">
         <v>3789</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="44">
         <f>C2+C2*$I$2</f>
         <v>4660.47</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="40">
         <v>0.13</v>
       </c>
-      <c r="F2" s="49">
-        <f>D2-D2*E2</f>
+      <c r="F2" s="45">
+        <f t="shared" ref="F2:F24" si="0">D2-D2*E2</f>
         <v>4054.6089000000002</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="39">
         <v>0.23</v>
       </c>
     </row>
@@ -1647,25 +1647,25 @@
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="42">
         <v>3700</v>
       </c>
-      <c r="D3" s="48">
-        <f t="shared" ref="D3:D24" si="0">C3+C3*$I$2</f>
+      <c r="D3" s="44">
+        <f t="shared" ref="D3:D24" si="1">C3+C3*$I$2</f>
         <v>4551</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="40">
         <v>0.09</v>
       </c>
-      <c r="F3" s="49">
-        <f>D3-D3*E3</f>
+      <c r="F3" s="45">
+        <f t="shared" si="0"/>
         <v>4141.41</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="30">
         <f>MIN(D2:D24)</f>
         <v>4551</v>
@@ -1678,25 +1678,25 @@
       <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="42">
         <v>3900</v>
       </c>
-      <c r="D4" s="48">
-        <f t="shared" si="0"/>
+      <c r="D4" s="44">
+        <f t="shared" si="1"/>
         <v>4797</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="40">
         <v>0.04</v>
       </c>
-      <c r="F4" s="49">
-        <f>D4-D4*E4</f>
+      <c r="F4" s="45">
+        <f t="shared" si="0"/>
         <v>4605.12</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
       <c r="N4" s="30">
         <f>MAX(D2:D24)</f>
         <v>11070</v>
@@ -1707,25 +1707,25 @@
         <v>62</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="46">
+      <c r="C5" s="42">
         <v>3988</v>
       </c>
-      <c r="D5" s="48">
-        <f t="shared" si="0"/>
+      <c r="D5" s="44">
+        <f t="shared" si="1"/>
         <v>4905.24</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="40">
         <v>0.04</v>
       </c>
-      <c r="F5" s="49">
-        <f>D5-D5*E5</f>
+      <c r="F5" s="45">
+        <f t="shared" si="0"/>
         <v>4709.0303999999996</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
       <c r="N5" s="30">
         <f>AVERAGE(D2:D24)</f>
         <v>6868.2665217391295</v>
@@ -1738,18 +1738,18 @@
       <c r="B6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="42">
         <v>4100</v>
       </c>
-      <c r="D6" s="48">
-        <f t="shared" si="0"/>
+      <c r="D6" s="44">
+        <f t="shared" si="1"/>
         <v>5043</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="40">
         <v>0.06</v>
       </c>
-      <c r="F6" s="49">
-        <f>D6-D6*E6</f>
+      <c r="F6" s="45">
+        <f t="shared" si="0"/>
         <v>4740.42</v>
       </c>
       <c r="K6" s="31"/>
@@ -1763,25 +1763,25 @@
       <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="42">
         <v>4010</v>
       </c>
-      <c r="D7" s="48">
-        <f t="shared" si="0"/>
+      <c r="D7" s="44">
+        <f t="shared" si="1"/>
         <v>4932.3</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="40">
         <v>0.03</v>
       </c>
-      <c r="F7" s="49">
-        <f>D7-D7*E7</f>
+      <c r="F7" s="45">
+        <f t="shared" si="0"/>
         <v>4784.3310000000001</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
       <c r="N7" s="30">
         <f>MIN(F2:F24)</f>
         <v>4054.6089000000002</v>
@@ -1794,25 +1794,25 @@
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="42">
         <v>4500</v>
       </c>
-      <c r="D8" s="48">
-        <f t="shared" si="0"/>
+      <c r="D8" s="44">
+        <f t="shared" si="1"/>
         <v>5535</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="40">
         <v>0.05</v>
       </c>
-      <c r="F8" s="49">
-        <f>D8-D8*E8</f>
+      <c r="F8" s="45">
+        <f t="shared" si="0"/>
         <v>5258.25</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
       <c r="N8" s="30">
         <f>MAX(F2:F24)</f>
         <v>9741.6</v>
@@ -1825,25 +1825,25 @@
       <c r="B9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="42">
         <v>4823</v>
       </c>
-      <c r="D9" s="48">
-        <f t="shared" si="0"/>
+      <c r="D9" s="44">
+        <f t="shared" si="1"/>
         <v>5932.29</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="40">
         <v>0.11</v>
       </c>
-      <c r="F9" s="49">
-        <f>D9-D9*E9</f>
+      <c r="F9" s="45">
+        <f t="shared" si="0"/>
         <v>5279.7380999999996</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
       <c r="N9" s="30">
         <f>AVERAGE(F2:F24)</f>
         <v>6343.3356782608698</v>
@@ -1856,18 +1856,18 @@
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="42">
         <v>5100</v>
       </c>
-      <c r="D10" s="48">
-        <f t="shared" si="0"/>
+      <c r="D10" s="44">
+        <f t="shared" si="1"/>
         <v>6273</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="40">
         <v>0.1</v>
       </c>
-      <c r="F10" s="49">
-        <f>D10-D10*E10</f>
+      <c r="F10" s="45">
+        <f t="shared" si="0"/>
         <v>5645.7</v>
       </c>
       <c r="K10" s="31"/>
@@ -1881,25 +1881,25 @@
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="42">
         <v>5400</v>
       </c>
-      <c r="D11" s="48">
-        <f t="shared" si="0"/>
+      <c r="D11" s="44">
+        <f t="shared" si="1"/>
         <v>6642</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="40">
         <v>0.08</v>
       </c>
-      <c r="F11" s="49">
-        <f>D11-D11*E11</f>
+      <c r="F11" s="45">
+        <f t="shared" si="0"/>
         <v>6110.64</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
       <c r="N11" s="2">
         <f>COUNTA(A2:A24)</f>
         <v>23</v>
@@ -1912,25 +1912,25 @@
       <c r="B12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="42">
         <v>5700</v>
       </c>
-      <c r="D12" s="48">
-        <f t="shared" si="0"/>
+      <c r="D12" s="44">
+        <f t="shared" si="1"/>
         <v>7011</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="40">
         <v>0.1</v>
       </c>
-      <c r="F12" s="49">
-        <f>D12-D12*E12</f>
+      <c r="F12" s="45">
+        <f t="shared" si="0"/>
         <v>6309.9</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
       <c r="N12" s="2">
         <f>COUNTBLANK(B2:B24)</f>
         <v>3</v>
@@ -1941,18 +1941,18 @@
         <v>63</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="46">
+      <c r="C13" s="42">
         <v>5444</v>
       </c>
-      <c r="D13" s="48">
-        <f t="shared" si="0"/>
+      <c r="D13" s="44">
+        <f t="shared" si="1"/>
         <v>6696.12</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="40">
         <v>0.03</v>
       </c>
-      <c r="F13" s="49">
-        <f>D13-D13*E13</f>
+      <c r="F13" s="45">
+        <f t="shared" si="0"/>
         <v>6495.2363999999998</v>
       </c>
     </row>
@@ -1963,18 +1963,18 @@
       <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="42">
         <v>5800</v>
       </c>
-      <c r="D14" s="48">
-        <f t="shared" si="0"/>
+      <c r="D14" s="44">
+        <f t="shared" si="1"/>
         <v>7134</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="40">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F14" s="49">
-        <f>D14-D14*E14</f>
+      <c r="F14" s="45">
+        <f t="shared" si="0"/>
         <v>6634.62</v>
       </c>
     </row>
@@ -1985,18 +1985,18 @@
       <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="42">
         <v>5897</v>
       </c>
-      <c r="D15" s="48">
-        <f t="shared" si="0"/>
+      <c r="D15" s="44">
+        <f t="shared" si="1"/>
         <v>7253.3099999999995</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="40">
         <v>0.06</v>
       </c>
-      <c r="F15" s="49">
-        <f>D15-D15*E15</f>
+      <c r="F15" s="45">
+        <f t="shared" si="0"/>
         <v>6818.1113999999998</v>
       </c>
     </row>
@@ -2007,18 +2007,18 @@
       <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="42">
         <v>6098</v>
       </c>
-      <c r="D16" s="48">
-        <f t="shared" si="0"/>
+      <c r="D16" s="44">
+        <f t="shared" si="1"/>
         <v>7500.54</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="40">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F16" s="49">
-        <f>D16-D16*E16</f>
+      <c r="F16" s="45">
+        <f t="shared" si="0"/>
         <v>6975.5021999999999</v>
       </c>
     </row>
@@ -2027,18 +2027,18 @@
         <v>64</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="46">
+      <c r="C17" s="42">
         <v>6002</v>
       </c>
-      <c r="D17" s="48">
-        <f t="shared" si="0"/>
+      <c r="D17" s="44">
+        <f t="shared" si="1"/>
         <v>7382.46</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="40">
         <v>0.03</v>
       </c>
-      <c r="F17" s="49">
-        <f>D17-D17*E17</f>
+      <c r="F17" s="45">
+        <f t="shared" si="0"/>
         <v>7160.9862000000003</v>
       </c>
     </row>
@@ -2049,18 +2049,18 @@
       <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="42">
         <v>5000</v>
       </c>
-      <c r="D18" s="48">
-        <f t="shared" si="0"/>
+      <c r="D18" s="44">
+        <f t="shared" si="1"/>
         <v>6150</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="40">
         <v>0.05</v>
       </c>
-      <c r="F18" s="49">
-        <f>D18-D18*E18</f>
+      <c r="F18" s="45">
+        <f t="shared" si="0"/>
         <v>5842.5</v>
       </c>
     </row>
@@ -2071,18 +2071,18 @@
       <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="42">
         <v>6700</v>
       </c>
-      <c r="D19" s="48">
-        <f t="shared" si="0"/>
+      <c r="D19" s="44">
+        <f t="shared" si="1"/>
         <v>8241</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="40">
         <v>0.09</v>
       </c>
-      <c r="F19" s="49">
-        <f>D19-D19*E19</f>
+      <c r="F19" s="45">
+        <f t="shared" si="0"/>
         <v>7499.31</v>
       </c>
     </row>
@@ -2093,18 +2093,18 @@
       <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="42">
         <v>6500</v>
       </c>
-      <c r="D20" s="48">
-        <f t="shared" si="0"/>
+      <c r="D20" s="44">
+        <f t="shared" si="1"/>
         <v>7995</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="40">
         <v>0.06</v>
       </c>
-      <c r="F20" s="49">
-        <f>D20-D20*E20</f>
+      <c r="F20" s="45">
+        <f t="shared" si="0"/>
         <v>7515.3</v>
       </c>
     </row>
@@ -2115,18 +2115,18 @@
       <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="42">
         <v>7000</v>
       </c>
-      <c r="D21" s="48">
-        <f t="shared" si="0"/>
+      <c r="D21" s="44">
+        <f t="shared" si="1"/>
         <v>8610</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="40">
         <v>0.05</v>
       </c>
-      <c r="F21" s="49">
-        <f>D21-D21*E21</f>
+      <c r="F21" s="45">
+        <f t="shared" si="0"/>
         <v>8179.5</v>
       </c>
     </row>
@@ -2137,18 +2137,18 @@
       <c r="B22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="42">
         <v>8000</v>
       </c>
-      <c r="D22" s="48">
-        <f t="shared" si="0"/>
+      <c r="D22" s="44">
+        <f t="shared" si="1"/>
         <v>9840</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="40">
         <v>0.12</v>
       </c>
-      <c r="F22" s="49">
-        <f>D22-D22*E22</f>
+      <c r="F22" s="45">
+        <f t="shared" si="0"/>
         <v>8659.2000000000007</v>
       </c>
     </row>
@@ -2159,18 +2159,18 @@
       <c r="B23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="42">
         <v>7980</v>
       </c>
-      <c r="D23" s="48">
-        <f t="shared" si="0"/>
+      <c r="D23" s="44">
+        <f t="shared" si="1"/>
         <v>9815.4</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="40">
         <v>0.11</v>
       </c>
-      <c r="F23" s="49">
-        <f>D23-D23*E23</f>
+      <c r="F23" s="45">
+        <f t="shared" si="0"/>
         <v>8735.7060000000001</v>
       </c>
     </row>
@@ -2181,18 +2181,18 @@
       <c r="B24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="43">
         <v>9000</v>
       </c>
-      <c r="D24" s="48">
-        <f t="shared" si="0"/>
+      <c r="D24" s="44">
+        <f t="shared" si="1"/>
         <v>11070</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="41">
         <v>0.12</v>
       </c>
-      <c r="F24" s="50">
-        <f>D24-D24*E24</f>
+      <c r="F24" s="46">
+        <f t="shared" si="0"/>
         <v>9741.6</v>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2368,10 +2368,10 @@
       <c r="F8" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="33"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="26">
         <f>MAX(D2:D14)</f>
         <v>200000</v>
@@ -2390,10 +2390,10 @@
       <c r="D9" s="24">
         <v>78000</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="26">
         <f>MIN(D2:D14)</f>
         <v>45000</v>
@@ -2429,10 +2429,10 @@
       <c r="F11" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="35"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="27">
         <f>_xlfn.MAXIFS(D2:D14,C2:C14,"C")</f>
         <v>95000</v>
@@ -2468,10 +2468,10 @@
       <c r="F13" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="35"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="26">
         <f>_xlfn.MINIFS(D2:D14,B2:B14,"Aveiro")</f>
         <v>50000</v>
@@ -2495,10 +2495,10 @@
       <c r="F15" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="35"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="26">
         <f>_xlfn.MINIFS(D2:D14,C2:C14,"A",A2:A14,1)</f>
         <v>75000</v>
@@ -2527,6 +2527,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006CB842600A0E964EBE88117445EBED7E" ma:contentTypeVersion="3" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="a725027eae200caf851bbd21b1eec2ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6c96d2b1-6fa3-4456-a494-3ce8b45afc84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ff97e10b6262e29b4dd2ec9a7639a85" ns2:_="">
     <xsd:import namespace="6c96d2b1-6fa3-4456-a494-3ce8b45afc84"/>
@@ -2664,12 +2670,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C88A1B8-41C1-4894-876C-537111445698}">
   <ds:schemaRefs>
@@ -2679,6 +2679,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C30C67B2-0828-4279-9E78-A7E76BF27E46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8f6831ed-2931-4bcd-a6aa-2b047f5f710d"/>
+    <ds:schemaRef ds:uri="39c14e5f-118f-4d3b-b34a-192023e9c05f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{031330E9-B2C3-4079-A7B9-4D2A06714D8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2694,15 +2705,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C30C67B2-0828-4279-9E78-A7E76BF27E46}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8f6831ed-2931-4bcd-a6aa-2b047f5f710d"/>
-    <ds:schemaRef ds:uri="39c14e5f-118f-4d3b-b34a-192023e9c05f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>